--- a/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
+++ b/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:45:47+00:00</t>
+    <t>2023-02-13T14:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
+++ b/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:47:47+00:00</t>
+    <t>2023-02-13T14:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
+++ b/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:47:57+00:00</t>
+    <t>2023-02-13T15:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
+++ b/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:02:26+00:00</t>
+    <t>2023-02-13T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
+++ b/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:03:14+00:00</t>
+    <t>2023-02-13T15:15:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
+++ b/branches/Update-Page-Content/ValueSet-vs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:15:01+00:00</t>
+    <t>2023-02-13T15:15:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
